--- a/World_Prep+Planning.xlsx
+++ b/World_Prep+Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\campaigns\fractured-worlds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1CC1D-21F7-4564-9C56-81934C9CCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D8895A-AB84-4313-B0A7-9154CF64AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6A28387-885A-4073-ACBF-3EE7A1BB7998}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>World</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>Teenage Mutant Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Muppet Treasure Island</t>
+  </si>
+  <si>
+    <t>Disney's Robin Hood</t>
+  </si>
+  <si>
+    <t>Duloc Outlands</t>
+  </si>
+  <si>
+    <t>partially</t>
   </si>
 </sst>
 </file>
@@ -354,6 +366,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -373,37 +407,6 @@
         </right>
         <vertical/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -433,6 +436,15 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -455,16 +467,16 @@
     <tableColumn id="4" xr3:uid="{F8582133-F6D6-45F3-AC28-48705C66CBFB}" name="Access Type"/>
     <tableColumn id="7" xr3:uid="{5EFC0F56-B278-4518-990F-B10B630A40BD}" name="Anchor Decided?"/>
     <tableColumn id="15" xr3:uid="{BA7D2538-C20C-4608-8CE9-6114F0C1AC7C}" name="Linked Worlds Decided?"/>
-    <tableColumn id="16" xr3:uid="{D3611B1F-FC80-40B0-97FB-B2A9CA917F67}" name="Certain about Inclusion?" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{6D3FE9C4-D533-40EA-AA27-A12095B70905}" name="Source" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A59D8410-7927-4FBF-B3F4-43033AF45C91}" name="Genre" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{860A2882-9501-457E-83CC-3B5F2E4613E2}" name="Core Themes" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{DF17518D-9552-4A3F-AEE3-B62844D6CAD4}" name="# Planned" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{D3611B1F-FC80-40B0-97FB-B2A9CA917F67}" name="Certain about Inclusion?" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6D3FE9C4-D533-40EA-AA27-A12095B70905}" name="Source" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A59D8410-7927-4FBF-B3F4-43033AF45C91}" name="Genre" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{860A2882-9501-457E-83CC-3B5F2E4613E2}" name="Core Themes" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{DF17518D-9552-4A3F-AEE3-B62844D6CAD4}" name="# Planned" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{D6D773EF-E3D1-40E6-8655-6029ABD25D19}" name="Plotted" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{ECF9B722-F714-406B-8C64-3182A33202A3}" name="Need?OW"/>
-    <tableColumn id="11" xr3:uid="{2893A1CE-9C56-4C73-90DA-293B84F52449}" name="Done?OW" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{2893A1CE-9C56-4C73-90DA-293B84F52449}" name="Done?OW" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{E34084E4-F133-4104-8EB3-A9508C91868D}" name="Need?BM"/>
-    <tableColumn id="13" xr3:uid="{C675223A-CFFB-4972-A8A2-6508B444349C}" name="Done?BM" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{C675223A-CFFB-4972-A8A2-6508B444349C}" name="Done?BM" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{045D3DEA-FA5C-4518-993A-A53CC9D76039}" name="Done?T" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -790,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3071D49-70A6-402B-90EC-DF8741EB6A9B}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,8 +819,8 @@
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="12" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -968,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
@@ -1031,6 +1043,12 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>48</v>
       </c>
@@ -1049,7 +1067,15 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1065,6 +1091,12 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="3" t="s">
         <v>37</v>
@@ -1081,8 +1113,16 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6"/>
       <c r="J10" s="2"/>
@@ -1095,8 +1135,16 @@
       <c r="A11" t="s">
         <v>39</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
       <c r="J11" s="2"/>
@@ -1109,6 +1157,12 @@
       <c r="A12" t="s">
         <v>40</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="3" t="s">
         <v>41</v>
@@ -1125,7 +1179,15 @@
       <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
@@ -1138,6 +1200,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
@@ -1153,6 +1221,12 @@
       <c r="A15" t="s">
         <v>44</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1167,7 +1241,15 @@
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6"/>
@@ -1179,21 +1261,53 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="12"/>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>48</v>
@@ -1211,7 +1325,15 @@
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6"/>
@@ -1225,7 +1347,15 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6"/>
@@ -1239,7 +1369,15 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
@@ -1253,7 +1391,15 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6"/>
@@ -1267,7 +1413,15 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6"/>
@@ -1281,6 +1435,15 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="7" t="s">
         <v>48</v>
       </c>
@@ -1289,11 +1452,27 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="M24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="12"/>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>

--- a/World_Prep+Planning.xlsx
+++ b/World_Prep+Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\campaigns\fractured-worlds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D8895A-AB84-4313-B0A7-9154CF64AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB157452-8B8A-4B37-BF5E-5546C3921B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6A28387-885A-4073-ACBF-3EE7A1BB7998}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>World</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Core Themes</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
     <t>Access Type</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Shrek</t>
   </si>
   <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -219,13 +213,148 @@
   </si>
   <si>
     <t>partially</t>
+  </si>
+  <si>
+    <t>Wonka's Factory</t>
+  </si>
+  <si>
+    <t>Blue's House</t>
+  </si>
+  <si>
+    <t>Cthulu</t>
+  </si>
+  <si>
+    <t>Blue's Clues</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mad Max: Beyond the Thunderdome</t>
+  </si>
+  <si>
+    <t>Charlie and the Chocolate Factory</t>
+  </si>
+  <si>
+    <t>Dr Seuss</t>
+  </si>
+  <si>
+    <t>Scooby-Doo, Where Are You?</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Barbie Movie</t>
+  </si>
+  <si>
+    <t>Disney's Peter Pan</t>
+  </si>
+  <si>
+    <t>Disney's The Little Mermaid</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Storybook</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Puzzle, Mystery</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Action, Adventure</t>
+  </si>
+  <si>
+    <t>Ancient Greece</t>
+  </si>
+  <si>
+    <t>Disney's Hercules</t>
+  </si>
+  <si>
+    <t>Ghostbusters</t>
+  </si>
+  <si>
+    <t>Bikini Bottom</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Original Trilogy</t>
+  </si>
+  <si>
+    <t>Space Jam</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>Gotham City</t>
+  </si>
+  <si>
+    <t>Batman '89</t>
+  </si>
+  <si>
+    <t>Andy's Room</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Ant Island</t>
+  </si>
+  <si>
+    <t>Bug's Life</t>
+  </si>
+  <si>
+    <t>Hyrule</t>
+  </si>
+  <si>
+    <t>Legend of Zelda, The</t>
+  </si>
+  <si>
+    <t>Inclusion</t>
+  </si>
+  <si>
+    <t>Story Genre</t>
+  </si>
+  <si>
+    <t>Expected Primary RPG Mechanic</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>How well would it convert to an adventure? (1-5)</t>
+  </si>
+  <si>
+    <t>GM's Interest     (1-5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +377,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -263,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -320,11 +463,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -336,17 +499,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -436,15 +689,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -459,25 +703,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C6FE3D-019D-4163-BBEE-53884841A795}" name="Worlds" displayName="Worlds" ref="A3:P42" totalsRowShown="0">
-  <autoFilter ref="A3:P42" xr:uid="{90C6FE3D-019D-4163-BBEE-53884841A795}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C6FE3D-019D-4163-BBEE-53884841A795}" name="Worlds" displayName="Worlds" ref="A3:S42" totalsRowShown="0">
+  <autoFilter ref="A3:S42" xr:uid="{90C6FE3D-019D-4163-BBEE-53884841A795}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{6DBD5328-CA11-48D4-9243-EF8155F55BC6}" name="World"/>
     <tableColumn id="3" xr3:uid="{4A7CBBC7-547E-4841-B12D-B2D0CE3ADE31}" name="Time Flow"/>
     <tableColumn id="4" xr3:uid="{F8582133-F6D6-45F3-AC28-48705C66CBFB}" name="Access Type"/>
     <tableColumn id="7" xr3:uid="{5EFC0F56-B278-4518-990F-B10B630A40BD}" name="Anchor Decided?"/>
     <tableColumn id="15" xr3:uid="{BA7D2538-C20C-4608-8CE9-6114F0C1AC7C}" name="Linked Worlds Decided?"/>
-    <tableColumn id="16" xr3:uid="{D3611B1F-FC80-40B0-97FB-B2A9CA917F67}" name="Certain about Inclusion?" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{6D3FE9C4-D533-40EA-AA27-A12095B70905}" name="Source" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A59D8410-7927-4FBF-B3F4-43033AF45C91}" name="Genre" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{860A2882-9501-457E-83CC-3B5F2E4613E2}" name="Core Themes" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{DF17518D-9552-4A3F-AEE3-B62844D6CAD4}" name="# Planned" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{D6D773EF-E3D1-40E6-8655-6029ABD25D19}" name="Plotted" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6D3FE9C4-D533-40EA-AA27-A12095B70905}" name="Source" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A59D8410-7927-4FBF-B3F4-43033AF45C91}" name="Story Genre" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{E9FAA4F2-E447-4D5A-9D0F-D827F430A019}" name="Expected Primary RPG Mechanic" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{924E35D1-8F4B-4C14-922D-DD694B21C5C3}" name="Core Themes" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D3611B1F-FC80-40B0-97FB-B2A9CA917F67}" name="Certain about Inclusion?" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{931E9DDC-7964-437F-BBFC-A0DE67AE8108}" name="GM's Interest     (1-5)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{860A2882-9501-457E-83CC-3B5F2E4613E2}" name="How well would it convert to an adventure? (1-5)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DF17518D-9552-4A3F-AEE3-B62844D6CAD4}" name="# Planned" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{D6D773EF-E3D1-40E6-8655-6029ABD25D19}" name="Plotted" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{ECF9B722-F714-406B-8C64-3182A33202A3}" name="Need?OW"/>
-    <tableColumn id="11" xr3:uid="{2893A1CE-9C56-4C73-90DA-293B84F52449}" name="Done?OW" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{2893A1CE-9C56-4C73-90DA-293B84F52449}" name="Done?OW" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{E34084E4-F133-4104-8EB3-A9508C91868D}" name="Need?BM"/>
-    <tableColumn id="13" xr3:uid="{C675223A-CFFB-4972-A8A2-6508B444349C}" name="Done?BM" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{045D3DEA-FA5C-4518-993A-A53CC9D76039}" name="Done?T" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{C675223A-CFFB-4972-A8A2-6508B444349C}" name="Done?BM" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{045D3DEA-FA5C-4518-993A-A53CC9D76039}" name="Done?T" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,79 +1047,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3071D49-70A6-402B-90EC-DF8741EB6A9B}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="12" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="13"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -880,797 +1143,1183 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="R3" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="J4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="8">
+      <c r="N4" s="8">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="M9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J9" s="14"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J11" s="14"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="8"/>
+      <c r="P13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" s="14"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="M15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J15" s="14"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="2">
+      <c r="J17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="2">
         <v>3</v>
       </c>
-      <c r="K17" s="8">
+      <c r="N17" s="8">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="8"/>
+      <c r="P18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="M19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="8"/>
+      <c r="P19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="8"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="8"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="8"/>
+      <c r="P21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="8"/>
+      <c r="P22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="M23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="8"/>
+      <c r="P23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="2">
+      <c r="J24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="2">
         <v>3</v>
       </c>
-      <c r="K24" s="8">
+      <c r="N24" s="8">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F25" s="7"/>
-      <c r="G25" s="3"/>
+      <c r="O24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="M25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F26" s="7"/>
+      <c r="J25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="2">
+        <v>3</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F27" s="7"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="2">
+        <v>3</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="P26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="8"/>
-      <c r="M27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="7"/>
+      <c r="J27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="8"/>
+      <c r="P27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="8"/>
-      <c r="M28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="7"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="8"/>
+      <c r="P28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="8"/>
-      <c r="M29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F30" s="7"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="8"/>
+      <c r="P29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="8"/>
-      <c r="M30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F31" s="7"/>
+      <c r="J30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="8"/>
+      <c r="P30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="8"/>
-      <c r="M31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F32" s="7"/>
+      <c r="J31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="8"/>
+      <c r="P31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="8"/>
-      <c r="M32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F33" s="7"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="8"/>
+      <c r="P32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="8"/>
-      <c r="M33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="7"/>
+      <c r="J33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="8"/>
+      <c r="P33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="8"/>
-      <c r="M34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="7"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="8"/>
+      <c r="P34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E35" s="6"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="M35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F36" s="7"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="8"/>
+      <c r="P35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E36" s="6"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8"/>
-      <c r="M36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F37" s="7"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="8"/>
+      <c r="P36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E37" s="6"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="8"/>
-      <c r="M37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="7"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="8"/>
+      <c r="P37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="8"/>
-      <c r="M38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="7"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="8"/>
+      <c r="P38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E39" s="6"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="8"/>
-      <c r="M39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="7"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="8"/>
+      <c r="P39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E40" s="6"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="8"/>
-      <c r="M40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="7"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="8"/>
+      <c r="P40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E41" s="6"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="8"/>
-      <c r="M41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="7"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="8"/>
+      <c r="P41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E42" s="6"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="8"/>
-      <c r="M42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="12"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="8"/>
+      <c r="P42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
